--- a/LinearRegression_Forecasts.xlsx
+++ b/LinearRegression_Forecasts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DJ2"/>
+  <dimension ref="A1:VG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,349 +776,3139 @@
       <c r="DJ1" s="1" t="n">
         <v>113</v>
       </c>
+      <c r="DK1" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="DM1" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="DP1" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="DQ1" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="DR1" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="DS1" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="DT1" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="DU1" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="DV1" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="DW1" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="DX1" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="DY1" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="DZ1" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="EA1" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="EB1" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="EC1" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="ED1" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="EE1" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="EF1" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="EG1" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="EH1" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="EI1" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="EJ1" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="EK1" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="EL1" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="EM1" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="EN1" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="EO1" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="EP1" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="EQ1" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="ER1" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="ES1" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="ET1" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="EU1" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="EV1" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="EW1" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="EX1" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="EY1" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="EZ1" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="FA1" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="FB1" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="FC1" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="FD1" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="FE1" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="FF1" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="FG1" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="FH1" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="FI1" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="FJ1" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="FK1" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="FL1" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="FM1" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="FN1" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="FO1" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="FP1" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="FQ1" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="FR1" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="FS1" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="FT1" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="FU1" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="FV1" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="FW1" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="FX1" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="FY1" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="FZ1" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="GA1" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="GB1" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="GC1" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="GD1" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="GE1" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="GF1" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="GG1" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="GH1" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="GI1" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="GJ1" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="GK1" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="GL1" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="GM1" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="GN1" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="GO1" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="GR1" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="NN1" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="NO1" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="NP1" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="NQ1" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="NR1" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="NS1" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="NT1" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="NU1" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="NV1" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="NW1" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="NX1" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="NY1" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="NZ1" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="OA1" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="OB1" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="OC1" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="OD1" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="OE1" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="OF1" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="OG1" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="OH1" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="OI1" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="OJ1" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="OK1" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="OL1" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="OM1" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="ON1" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="OO1" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="OP1" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="OQ1" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="OR1" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="OS1" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="OT1" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="OU1" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="OV1" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="OW1" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="OX1" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="OY1" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="OZ1" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="PA1" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="PB1" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="PC1" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="PD1" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="PE1" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="PF1" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="PG1" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="PH1" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="PI1" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="PJ1" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="PK1" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="PL1" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="PM1" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="PN1" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="PO1" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="PP1" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="PQ1" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="PR1" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="PS1" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="PT1" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="PU1" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="PV1" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="PW1" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="PX1" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="PY1" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="PZ1" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="QA1" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="QB1" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="QC1" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="QD1" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="QE1" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="QF1" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="QG1" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="QH1" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="QI1" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="QJ1" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="QK1" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="QL1" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="QM1" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="QN1" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="QO1" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="QP1" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="QQ1" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="QR1" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="QS1" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="QT1" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="QU1" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="QV1" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="QW1" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="QX1" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="QY1" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="QZ1" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="RA1" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="RB1" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="RC1" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="RD1" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="RE1" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="RF1" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="RG1" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="RH1" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="RI1" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="RJ1" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="RK1" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="RL1" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="RM1" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="RN1" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="RO1" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="RP1" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="RQ1" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="RR1" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="RS1" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="RT1" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="RU1" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="RV1" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="RW1" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="RX1" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="RY1" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="RZ1" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="SA1" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="SB1" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="SC1" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="SD1" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="SE1" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="SF1" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="SG1" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="SH1" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="SI1" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="SJ1" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="SK1" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="SL1" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="SM1" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="SN1" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="SO1" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="SP1" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="SQ1" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="SR1" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="SS1" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="ST1" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="SU1" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="SV1" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="SW1" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="SX1" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="SY1" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="SZ1" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="TA1" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="TB1" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="TC1" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="TD1" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="TE1" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="TF1" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="TG1" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="TH1" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="TI1" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="TJ1" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="TK1" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="TL1" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="TM1" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="TN1" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="TO1" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="TP1" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="TQ1" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="TR1" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="TS1" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="TT1" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="TU1" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="TV1" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="TW1" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="TX1" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="TY1" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="TZ1" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="UA1" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="UB1" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="UC1" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="UD1" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="UE1" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="UF1" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="UG1" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="UH1" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="UI1" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="UJ1" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="UK1" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="UL1" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="UM1" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="UN1" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="UO1" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="UP1" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="UQ1" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="UR1" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="US1" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="UT1" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="UU1" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="UV1" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="UW1" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="UX1" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="UY1" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="UZ1" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="VA1" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="VB1" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="VC1" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="VD1" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="VE1" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="VF1" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="VG1" s="1" t="n">
+        <v>578</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>269</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>321</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>585</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>871</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1475</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>2821</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>3928</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>5943</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>4950</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2577</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>381.9696677796207</v>
+        <v>3.813265345984139</v>
       </c>
       <c r="L2" t="n">
-        <v>-423.9296363753568</v>
+        <v>3.769822571657527</v>
       </c>
       <c r="M2" t="n">
-        <v>-20.78509512776819</v>
+        <v>3.092226815621445</v>
       </c>
       <c r="N2" t="n">
-        <v>380.2413988470768</v>
+        <v>4.750837395300384</v>
       </c>
       <c r="O2" t="n">
-        <v>755.2919654407596</v>
+        <v>4.53403733792011</v>
       </c>
       <c r="P2" t="n">
-        <v>1496.922287708475</v>
+        <v>3.613378457763146</v>
       </c>
       <c r="Q2" t="n">
-        <v>3602.958757266778</v>
+        <v>5.597442147414403</v>
       </c>
       <c r="R2" t="n">
-        <v>2807.040051330747</v>
+        <v>3.355458257966049</v>
       </c>
       <c r="S2" t="n">
-        <v>2976.08954645669</v>
+        <v>3.219703696979952</v>
       </c>
       <c r="T2" t="n">
-        <v>573.668121680325</v>
+        <v>4.786203289080493</v>
       </c>
       <c r="U2" t="n">
-        <v>144.5561108515058</v>
+        <v>4.291000864218001</v>
       </c>
       <c r="V2" t="n">
-        <v>395.0909061992635</v>
+        <v>3.571814690239602</v>
       </c>
       <c r="W2" t="n">
-        <v>143.0723828651122</v>
+        <v>4.420995737014231</v>
       </c>
       <c r="X2" t="n">
-        <v>584.6846609812867</v>
+        <v>3.556914422453368</v>
       </c>
       <c r="Y2" t="n">
-        <v>991.5389388574329</v>
+        <v>2.702326365173966</v>
       </c>
       <c r="Z2" t="n">
-        <v>1616.629270585902</v>
+        <v>4.04354169706682</v>
       </c>
       <c r="AA2" t="n">
-        <v>2025.467009591719</v>
+        <v>6.211293180338638</v>
       </c>
       <c r="AB2" t="n">
-        <v>2410.573401327712</v>
+        <v>4.695748244610073</v>
       </c>
       <c r="AC2" t="n">
-        <v>1856.15838591585</v>
+        <v>3.423214283202332</v>
       </c>
       <c r="AD2" t="n">
-        <v>267.8195236864576</v>
+        <v>4.213904595125644</v>
       </c>
       <c r="AE2" t="n">
-        <v>583.423322706309</v>
+        <v>3.410394274843512</v>
       </c>
       <c r="AF2" t="n">
-        <v>543.005038610293</v>
+        <v>5.252877667577212</v>
       </c>
       <c r="AG2" t="n">
-        <v>462.2312720086517</v>
+        <v>8.041147628229483</v>
       </c>
       <c r="AH2" t="n">
-        <v>787.7262191388376</v>
+        <v>5.933994559661173</v>
       </c>
       <c r="AI2" t="n">
-        <v>1144.111312830088</v>
+        <v>3.6159635186824</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2161.751384328231</v>
+        <v>4.941174802311226</v>
       </c>
       <c r="AK2" t="n">
-        <v>2643.824082035536</v>
+        <v>4.425259384456321</v>
       </c>
       <c r="AL2" t="n">
-        <v>1947.000020716261</v>
+        <v>4.392871616701015</v>
       </c>
       <c r="AM2" t="n">
-        <v>1149.705021801082</v>
+        <v>12.15191731404742</v>
       </c>
       <c r="AN2" t="n">
-        <v>169.610074981016</v>
+        <v>6.865818190487237</v>
       </c>
       <c r="AO2" t="n">
-        <v>445.2230945734447</v>
+        <v>4.531935517069384</v>
       </c>
       <c r="AP2" t="n">
-        <v>389.9955521919616</v>
+        <v>5.905724785674424</v>
       </c>
       <c r="AQ2" t="n">
-        <v>579.602261463372</v>
+        <v>4.848648003601816</v>
       </c>
       <c r="AR2" t="n">
-        <v>1171.946775917738</v>
+        <v>6.283142576386159</v>
       </c>
       <c r="AS2" t="n">
-        <v>2231.246111053678</v>
+        <v>10.7690549288373</v>
       </c>
       <c r="AT2" t="n">
-        <v>3272.924725206617</v>
+        <v>9.146610548873145</v>
       </c>
       <c r="AU2" t="n">
-        <v>5146.528232865706</v>
+        <v>10.95596815126064</v>
       </c>
       <c r="AV2" t="n">
-        <v>860.0832627112844</v>
+        <v>4.261093264326161</v>
       </c>
       <c r="AW2" t="n">
-        <v>-488.9949812604603</v>
+        <v>12.34438451141736</v>
       </c>
       <c r="AX2" t="n">
-        <v>304.6643254621839</v>
+        <v>6.350353562687116</v>
       </c>
       <c r="AY2" t="n">
-        <v>131.345941439001</v>
+        <v>5.035108497345185</v>
       </c>
       <c r="AZ2" t="n">
-        <v>337.4274238090942</v>
+        <v>11.23630891913675</v>
       </c>
       <c r="BA2" t="n">
-        <v>904.4092881914227</v>
+        <v>14.54103454859228</v>
       </c>
       <c r="BB2" t="n">
-        <v>2215.68428550852</v>
+        <v>9.697549400301423</v>
       </c>
       <c r="BC2" t="n">
-        <v>2689.241664204057</v>
+        <v>13.38450261814766</v>
       </c>
       <c r="BD2" t="n">
-        <v>2735.543244762047</v>
+        <v>7.204112582491748</v>
       </c>
       <c r="BE2" t="n">
-        <v>881.4355287511924</v>
+        <v>10.17363774909177</v>
       </c>
       <c r="BF2" t="n">
-        <v>685.017027814813</v>
+        <v>17.74962629581161</v>
       </c>
       <c r="BG2" t="n">
-        <v>434.8369467377872</v>
+        <v>13.53334116449018</v>
       </c>
       <c r="BH2" t="n">
-        <v>498.4608802181776</v>
+        <v>15.11388339183517</v>
       </c>
       <c r="BI2" t="n">
-        <v>753.0846032315048</v>
+        <v>13.65747976536072</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1075.207934295976</v>
+        <v>7.387885612934019</v>
       </c>
       <c r="BK2" t="n">
-        <v>1400.877244892994</v>
+        <v>14.90771337082476</v>
       </c>
       <c r="BL2" t="n">
-        <v>2501.738001676882</v>
+        <v>19.3857142976121</v>
       </c>
       <c r="BM2" t="n">
-        <v>2290.703362212502</v>
+        <v>12.3939098594694</v>
       </c>
       <c r="BN2" t="n">
-        <v>3241.940070895082</v>
+        <v>10.92487759198556</v>
       </c>
       <c r="BO2" t="n">
-        <v>480.1524352606365</v>
+        <v>15.36208116687757</v>
       </c>
       <c r="BP2" t="n">
-        <v>-119.6638240236622</v>
+        <v>13.17981796828487</v>
       </c>
       <c r="BQ2" t="n">
-        <v>315.4088969101319</v>
+        <v>12.03592540355361</v>
       </c>
       <c r="BR2" t="n">
-        <v>137.3061047096157</v>
+        <v>15.24891744704959</v>
       </c>
       <c r="BS2" t="n">
-        <v>550.2716682894743</v>
+        <v>9.666241250647884</v>
       </c>
       <c r="BT2" t="n">
-        <v>740.0324529614156</v>
+        <v>27.83263170354554</v>
       </c>
       <c r="BU2" t="n">
-        <v>1415.042485503303</v>
+        <v>13.52906423557989</v>
       </c>
       <c r="BV2" t="n">
-        <v>1874.720703739719</v>
+        <v>14.76469104841611</v>
       </c>
       <c r="BW2" t="n">
-        <v>2194.73966671003</v>
+        <v>25.48777100833932</v>
       </c>
       <c r="BX2" t="n">
-        <v>3596.147612304466</v>
+        <v>12.58333287108367</v>
       </c>
       <c r="BY2" t="n">
-        <v>1482.129831499572</v>
+        <v>19.35810250527953</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-342.4517743655222</v>
+        <v>31.6045049948154</v>
       </c>
       <c r="CA2" t="n">
-        <v>512.8786752391457</v>
+        <v>17.65207427081669</v>
       </c>
       <c r="CB2" t="n">
-        <v>243.6668514092053</v>
+        <v>18.47217270940105</v>
       </c>
       <c r="CC2" t="n">
-        <v>647.7880372045172</v>
+        <v>34.43864292276193</v>
       </c>
       <c r="CD2" t="n">
-        <v>797.5729196106497</v>
+        <v>20.09118769828638</v>
       </c>
       <c r="CE2" t="n">
-        <v>1542.076723138397</v>
+        <v>12.00863707648555</v>
       </c>
       <c r="CF2" t="n">
-        <v>3870.810083973296</v>
+        <v>15.66326268157084</v>
       </c>
       <c r="CG2" t="n">
-        <v>5462.987958016165</v>
+        <v>16.33128202432967</v>
       </c>
       <c r="CH2" t="n">
-        <v>2552.053642963039</v>
+        <v>23.19127088605002</v>
       </c>
       <c r="CI2" t="n">
-        <v>925.2109341766675</v>
+        <v>21.5049465301531</v>
       </c>
       <c r="CJ2" t="n">
-        <v>73.36498712686003</v>
+        <v>17.84407103582548</v>
       </c>
       <c r="CK2" t="n">
-        <v>-562.7581502441551</v>
+        <v>14.50837869041109</v>
       </c>
       <c r="CL2" t="n">
-        <v>221.9084323223744</v>
+        <v>14.30231852386437</v>
       </c>
       <c r="CM2" t="n">
-        <v>490.9007570962549</v>
+        <v>19.22186387977977</v>
       </c>
       <c r="CN2" t="n">
-        <v>1750.32331674229</v>
+        <v>17.90252274328719</v>
       </c>
       <c r="CO2" t="n">
-        <v>3549.27123110406</v>
+        <v>10.04338311083068</v>
       </c>
       <c r="CP2" t="n">
-        <v>3787.177631758857</v>
+        <v>9.614221573412085</v>
       </c>
       <c r="CQ2" t="n">
-        <v>2285.106994671143</v>
+        <v>13.64999281217061</v>
       </c>
       <c r="CR2" t="n">
-        <v>2097.458335795385</v>
+        <v>11.42947700535582</v>
       </c>
       <c r="CS2" t="n">
-        <v>2179.99918001985</v>
+        <v>16.44122544722663</v>
       </c>
       <c r="CT2" t="n">
-        <v>-1050.616853302062</v>
+        <v>10.64157366858559</v>
       </c>
       <c r="CU2" t="n">
-        <v>464.2460285309251</v>
+        <v>7.999894680729074</v>
       </c>
       <c r="CV2" t="n">
-        <v>254.477022852908</v>
+        <v>8.704874645709104</v>
       </c>
       <c r="CW2" t="n">
-        <v>911.6409516568008</v>
+        <v>8.447534935251976</v>
       </c>
       <c r="CX2" t="n">
-        <v>1409.906779317892</v>
+        <v>11.68789222201136</v>
       </c>
       <c r="CY2" t="n">
-        <v>1310.703553484586</v>
+        <v>15.28090568590648</v>
       </c>
       <c r="CZ2" t="n">
-        <v>2292.611452898643</v>
+        <v>9.414568329085879</v>
       </c>
       <c r="DA2" t="n">
-        <v>2888.506870723998</v>
+        <v>7.684066064369904</v>
       </c>
       <c r="DB2" t="n">
-        <v>2704.654011796354</v>
+        <v>9.752467751648815</v>
       </c>
       <c r="DC2" t="n">
-        <v>1387.027997722998</v>
+        <v>16.0257931666158</v>
       </c>
       <c r="DD2" t="n">
-        <v>544.2266477229281</v>
+        <v>10.4203346177896</v>
       </c>
       <c r="DE2" t="n">
-        <v>202.7855008500824</v>
+        <v>13.03328331777128</v>
       </c>
       <c r="DF2" t="n">
-        <v>489.8379288496476</v>
+        <v>18.69173688099384</v>
       </c>
       <c r="DG2" t="n">
-        <v>627.3550610625215</v>
+        <v>14.70726568137476</v>
       </c>
       <c r="DH2" t="n">
-        <v>1074.979885106844</v>
+        <v>11.886913589928</v>
       </c>
       <c r="DI2" t="n">
-        <v>1865.500694608502</v>
+        <v>20.15832328538314</v>
       </c>
       <c r="DJ2" t="n">
-        <v>2803.645533364011</v>
+        <v>12.89017083972484</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>8.273094329277026</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>29.1571259772653</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>20.36282569403035</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>11.44996704035749</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>18.7609322858761</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>19.54237689704639</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>16.46393204206442</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>19.33024373009801</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>21.27097268343192</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>18.37327835559069</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>15.39765652705005</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>19.05635739880677</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>16.81654359113159</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>10.29564668067011</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>19.03684195772484</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>20.78256115549248</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>19.04124024444219</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>11.93750612845122</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>13.51886511354446</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>13.4956397556799</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>18.25502005099821</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>15.32501076357048</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>16.33317138465196</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>20.3611223655166</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>10.96819441538948</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>13.80362758097646</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>19.64415582073015</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>12.90160016380503</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>9.259404442153919</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>17.15604945273942</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>14.06478692104967</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>17.68130683963786</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>17.9828564567812</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>25.29236763359419</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>16.94926811324009</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>9.484033993706664</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>19.20852276644154</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>33.09792548939303</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>26.968532114108</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>27.74817668177625</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>26.58235965282109</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>17.13938466757615</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>20.56185288783707</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>28.40883602559665</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>24.43214193802279</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>16.5509693018605</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>24.43365522814689</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>23.47616188805159</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>14.39639912457721</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>12.49280017859451</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>16.06579548180073</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>17.92226544452095</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>20.49701280632537</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>25.06033872382537</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>14.58830944646628</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>12.38605383546925</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>16.77738978500142</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>16.61020017397441</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>22.85289856811305</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>19.44071959146075</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>15.65124530048674</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>21.02142202813869</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>23.64509818502865</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>13.28540678024848</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>19.08576053427673</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>31.80881418605554</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>17.94803442475441</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>21.62290489198683</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>24.86205779683349</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>27.9819320977112</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>25.71206050791011</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>29.85104657578131</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>33.00765176625606</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>19.861518951718</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>27.24060777649547</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>38.36253793600356</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>34.21849794537809</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>25.30229154830536</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>27.3373029276454</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>38.22059525157195</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>26.12149469100095</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>21.27133170568854</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>33.60469188432143</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>32.65663914588498</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>13.70252948385324</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>29.37216910393875</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>29.90184185585624</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>19.18575844453454</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>28.21149914903605</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>30.39875999931432</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>17.80301713783994</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>15.91066698734569</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>23.49939293564455</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>25.10727212196519</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>17.05699809361246</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>19.36433699651839</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>28.77598397585005</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>28.33188356826669</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>14.80528604281409</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>26.613625679013</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>23.18915172338082</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>17.38345960754593</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>30.0748821225819</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>35.48799426770717</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>21.0582027714576</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>20.64262144206513</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>29.7328254388454</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>25.64576941408225</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>27.69360276471586</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>29.8031682500417</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>31.93788625048586</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>24.31846702808195</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>15.76024410639262</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>26.99866471501865</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>43.06369838849268</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>31.34699237500959</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>30.41413934894456</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>38.15203283852217</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>23.69335635309356</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>26.73987997414357</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>35.82808548890738</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>34.76630379411918</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>35.52244943010169</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>37.72231129949185</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>39.13844752185544</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>33.2594755262504</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>25.29076648840765</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>34.05250202138409</v>
+      </c>
+      <c r="II2" t="n">
+        <v>54.55842465646278</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>44.30514945447232</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>39.11093252570919</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>39.88632736286449</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>29.84264028057497</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>26.80996024769326</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>44.66568669084646</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>47.34976488732939</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>41.83232856023076</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>39.98105748076825</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>61.23075575175393</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>24.61770428531458</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>22.73147611148256</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>40.20203252249539</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>42.38572088905276</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>44.59092169913502</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>59.75479317885515</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>37.79802854723681</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>25.98049467980603</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>34.79696994174868</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>36.16747700293068</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>44.68677638263898</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>36.64451116509699</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>37.23554955016765</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>38.92865530736965</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>31.13365459513895</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>27.93647013972035</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>39.2979132231556</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>53.76193209122889</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>40.17479018734179</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>39.16390296964887</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>50.30634355820279</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>41.73705303515956</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>36.9063638351592</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>49.7152103407318</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>62.1284190995659</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>44.34420899956461</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>60.37331253137786</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>89.43181727826658</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>35.29813860413654</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>33.51151280491275</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>59.35176888605801</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>59.9535771916964</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>64.99486095524449</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>82.86669173190387</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>65.18855504058921</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>37.08285073372534</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>39.4787221945649</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>56.32668975827726</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>56.7221204504763</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>61.46489281648231</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>78.44067185435742</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>51.27685738559851</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>39.72606405357835</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>39.62817092108917</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>46.2753365153786</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>68.96434023353642</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>63.45209652261132</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>52.29636411099213</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>54.59490063203949</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>54.21958700178233</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>49.7897120240393</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>52.18129558674919</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>68.56462035119024</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>66.53927415656375</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>62.76286139397155</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>76.15874209423927</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>84.26560930954918</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>45.97803176578071</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>61.59382767318677</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>96.3918655995315</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>75.44897612612618</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>77.35373877855106</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>91.71780978596404</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>63.71405162610863</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>42.72584443561362</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>80.97014317213231</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>104.124233394419</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>70.24044590457075</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>79.96411340893</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>79.30727119079046</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>40.78970909063136</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>50.32761587804114</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>74.88831080189016</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>87.50933829852674</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>82.59891311467408</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>75.74377353620284</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>58.97004349262399</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>56.15879020260191</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>52.11443731711334</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>98.08221710443489</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>109.756036004895</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>77.68661420480785</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>76.94812060759807</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>72.86820752419011</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>70.04561544355752</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>73.14849543357101</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>93.5870171136509</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>97.86829189377485</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>71.94002010903313</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>85.65151520145714</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>92.18298295895853</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>47.9444976627375</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>55.3400636303926</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>72.70712343829142</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>112.9478958645224</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>96.29660111630817</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>89.3120759127562</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>103.2251362162776</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>48.6742748411363</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>64.83495802783457</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>106.7396479559773</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>107.6895461214833</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>93.23180892162831</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>110.9528159753499</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>128.1553913315073</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>97.420399856976</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>51.89804265145824</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>92.77566279039974</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>122.4869322930276</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>119.3420459377733</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>160.5112148954659</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>139.1396270098476</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>64.0256887085739</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>70.34985590864734</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>120.3266608045256</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>138.9485113580206</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>107.9647449677785</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>110.6482623013698</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>140.5260330077469</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>70.56628007545049</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>62.7569930953338</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>103.958959611199</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>103.371731102721</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>121.4215390029163</v>
+      </c>
+      <c r="NN2" t="n">
+        <v>165.6432602353619</v>
+      </c>
+      <c r="NO2" t="n">
+        <v>170.9132367880172</v>
+      </c>
+      <c r="NP2" t="n">
+        <v>52.31249800382006</v>
+      </c>
+      <c r="NQ2" t="n">
+        <v>73.48919861508114</v>
+      </c>
+      <c r="NR2" t="n">
+        <v>110.758643404128</v>
+      </c>
+      <c r="NS2" t="n">
+        <v>144.0825231933142</v>
+      </c>
+      <c r="NT2" t="n">
+        <v>150.180308302686</v>
+      </c>
+      <c r="NU2" t="n">
+        <v>169.2668963308128</v>
+      </c>
+      <c r="NV2" t="n">
+        <v>106.4402285182318</v>
+      </c>
+      <c r="NW2" t="n">
+        <v>90.71765695211842</v>
+      </c>
+      <c r="NX2" t="n">
+        <v>97.28124256340246</v>
+      </c>
+      <c r="NY2" t="n">
+        <v>133.018428798745</v>
+      </c>
+      <c r="NZ2" t="n">
+        <v>125.6815479462112</v>
+      </c>
+      <c r="OA2" t="n">
+        <v>136.3464785855798</v>
+      </c>
+      <c r="OB2" t="n">
+        <v>137.170315060362</v>
+      </c>
+      <c r="OC2" t="n">
+        <v>131.3758087561994</v>
+      </c>
+      <c r="OD2" t="n">
+        <v>102.8100426225167</v>
+      </c>
+      <c r="OE2" t="n">
+        <v>80.93953747426335</v>
+      </c>
+      <c r="OF2" t="n">
+        <v>128.4245330966968</v>
+      </c>
+      <c r="OG2" t="n">
+        <v>161.8224728543547</v>
+      </c>
+      <c r="OH2" t="n">
+        <v>141.7063041936096</v>
+      </c>
+      <c r="OI2" t="n">
+        <v>138.6643691576073</v>
+      </c>
+      <c r="OJ2" t="n">
+        <v>134.0765210651129</v>
+      </c>
+      <c r="OK2" t="n">
+        <v>101.2166822295835</v>
+      </c>
+      <c r="OL2" t="n">
+        <v>88.72884675265745</v>
+      </c>
+      <c r="OM2" t="n">
+        <v>113.5291764762693</v>
+      </c>
+      <c r="ON2" t="n">
+        <v>149.9571138358438</v>
+      </c>
+      <c r="OO2" t="n">
+        <v>167.9028758260192</v>
+      </c>
+      <c r="OP2" t="n">
+        <v>130.6110845254947</v>
+      </c>
+      <c r="OQ2" t="n">
+        <v>133.7413320974174</v>
+      </c>
+      <c r="OR2" t="n">
+        <v>100.6961706329452</v>
+      </c>
+      <c r="OS2" t="n">
+        <v>72.33523747464123</v>
+      </c>
+      <c r="OT2" t="n">
+        <v>121.3387932890318</v>
+      </c>
+      <c r="OU2" t="n">
+        <v>185.1952166937097</v>
+      </c>
+      <c r="OV2" t="n">
+        <v>153.8100698538234</v>
+      </c>
+      <c r="OW2" t="n">
+        <v>131.5572052692442</v>
+      </c>
+      <c r="OX2" t="n">
+        <v>138.8395776655481</v>
+      </c>
+      <c r="OY2" t="n">
+        <v>117.3846879069491</v>
+      </c>
+      <c r="OZ2" t="n">
+        <v>74.73631283885732</v>
+      </c>
+      <c r="PA2" t="n">
+        <v>155.2021704815248</v>
+      </c>
+      <c r="PB2" t="n">
+        <v>185.6793721988866</v>
+      </c>
+      <c r="PC2" t="n">
+        <v>155.818406051638</v>
+      </c>
+      <c r="PD2" t="n">
+        <v>179.0098571869683</v>
+      </c>
+      <c r="PE2" t="n">
+        <v>178.4967594555148</v>
+      </c>
+      <c r="PF2" t="n">
+        <v>116.837488415745</v>
+      </c>
+      <c r="PG2" t="n">
+        <v>106.0698852139111</v>
+      </c>
+      <c r="PH2" t="n">
+        <v>145.1483964057147</v>
+      </c>
+      <c r="PI2" t="n">
+        <v>181.3788091871639</v>
+      </c>
+      <c r="PJ2" t="n">
+        <v>170.6187516251862</v>
+      </c>
+      <c r="PK2" t="n">
+        <v>170.0936879202108</v>
+      </c>
+      <c r="PL2" t="n">
+        <v>144.0327662042667</v>
+      </c>
+      <c r="PM2" t="n">
+        <v>92.37331234501356</v>
+      </c>
+      <c r="PN2" t="n">
+        <v>96.09295076517165</v>
+      </c>
+      <c r="PO2" t="n">
+        <v>149.1779057993432</v>
+      </c>
+      <c r="PP2" t="n">
+        <v>171.6165558721947</v>
+      </c>
+      <c r="PQ2" t="n">
+        <v>152.3334262393926</v>
+      </c>
+      <c r="PR2" t="n">
+        <v>144.032654833589</v>
+      </c>
+      <c r="PS2" t="n">
+        <v>128.2150502836948</v>
+      </c>
+      <c r="PT2" t="n">
+        <v>121.3504208679999</v>
+      </c>
+      <c r="PU2" t="n">
+        <v>101.4906091770776</v>
+      </c>
+      <c r="PV2" t="n">
+        <v>128.0939124416999</v>
+      </c>
+      <c r="PW2" t="n">
+        <v>176.777331909627</v>
+      </c>
+      <c r="PX2" t="n">
+        <v>147.2733382801168</v>
+      </c>
+      <c r="PY2" t="n">
+        <v>154.8531313314279</v>
+      </c>
+      <c r="PZ2" t="n">
+        <v>178.3155191372179</v>
+      </c>
+      <c r="QA2" t="n">
+        <v>90.84937882921599</v>
+      </c>
+      <c r="QB2" t="n">
+        <v>94.24771764207014</v>
+      </c>
+      <c r="QC2" t="n">
+        <v>154.4893528299296</v>
+      </c>
+      <c r="QD2" t="n">
+        <v>183.2281408822828</v>
+      </c>
+      <c r="QE2" t="n">
+        <v>143.3091252440063</v>
+      </c>
+      <c r="QF2" t="n">
+        <v>182.4865159740506</v>
+      </c>
+      <c r="QG2" t="n">
+        <v>135.0806692666188</v>
+      </c>
+      <c r="QH2" t="n">
+        <v>88.3256497764533</v>
+      </c>
+      <c r="QI2" t="n">
+        <v>120.639248786441</v>
+      </c>
+      <c r="QJ2" t="n">
+        <v>140.7906077283515</v>
+      </c>
+      <c r="QK2" t="n">
+        <v>156.274794408865</v>
+      </c>
+      <c r="QL2" t="n">
+        <v>161.109305076055</v>
+      </c>
+      <c r="QM2" t="n">
+        <v>153.4839003411417</v>
+      </c>
+      <c r="QN2" t="n">
+        <v>146.3584311691919</v>
+      </c>
+      <c r="QO2" t="n">
+        <v>91.67298098614431</v>
+      </c>
+      <c r="QP2" t="n">
+        <v>95.65937828799657</v>
+      </c>
+      <c r="QQ2" t="n">
+        <v>168.4271152964328</v>
+      </c>
+      <c r="QR2" t="n">
+        <v>140.7787693593277</v>
+      </c>
+      <c r="QS2" t="n">
+        <v>174.0108920191443</v>
+      </c>
+      <c r="QT2" t="n">
+        <v>177.361714421795</v>
+      </c>
+      <c r="QU2" t="n">
+        <v>137.8450994560757</v>
+      </c>
+      <c r="QV2" t="n">
+        <v>118.9428406498248</v>
+      </c>
+      <c r="QW2" t="n">
+        <v>126.4658545893776</v>
+      </c>
+      <c r="QX2" t="n">
+        <v>134.2679431420114</v>
+      </c>
+      <c r="QY2" t="n">
+        <v>193.2682038424232</v>
+      </c>
+      <c r="QZ2" t="n">
+        <v>217.9166345772938</v>
+      </c>
+      <c r="RA2" t="n">
+        <v>172.7968072964539</v>
+      </c>
+      <c r="RB2" t="n">
+        <v>175.9609215946797</v>
+      </c>
+      <c r="RC2" t="n">
+        <v>141.7995732960312</v>
+      </c>
+      <c r="RD2" t="n">
+        <v>93.20902091447384</v>
+      </c>
+      <c r="RE2" t="n">
+        <v>176.6535900400367</v>
+      </c>
+      <c r="RF2" t="n">
+        <v>237.5005712021026</v>
+      </c>
+      <c r="RG2" t="n">
+        <v>163.7172597379511</v>
+      </c>
+      <c r="RH2" t="n">
+        <v>205.0038156076327</v>
+      </c>
+      <c r="RI2" t="n">
+        <v>189.820543929185</v>
+      </c>
+      <c r="RJ2" t="n">
+        <v>106.5256731395332</v>
+      </c>
+      <c r="RK2" t="n">
+        <v>119.7875570834144</v>
+      </c>
+      <c r="RL2" t="n">
+        <v>172.9351229754089</v>
+      </c>
+      <c r="RM2" t="n">
+        <v>200.4976873623363</v>
+      </c>
+      <c r="RN2" t="n">
+        <v>178.2591503228528</v>
+      </c>
+      <c r="RO2" t="n">
+        <v>194.8655774942033</v>
+      </c>
+      <c r="RP2" t="n">
+        <v>153.2003469483778</v>
+      </c>
+      <c r="RQ2" t="n">
+        <v>106.9775375505641</v>
+      </c>
+      <c r="RR2" t="n">
+        <v>128.9155182455984</v>
+      </c>
+      <c r="RS2" t="n">
+        <v>170.1244539174906</v>
+      </c>
+      <c r="RT2" t="n">
+        <v>178.9982528796749</v>
+      </c>
+      <c r="RU2" t="n">
+        <v>153.6703964877508</v>
+      </c>
+      <c r="RV2" t="n">
+        <v>173.5923426693958</v>
+      </c>
+      <c r="RW2" t="n">
+        <v>136.8376458017352</v>
+      </c>
+      <c r="RX2" t="n">
+        <v>115.3796558412473</v>
+      </c>
+      <c r="RY2" t="n">
+        <v>119.2299644557517</v>
+      </c>
+      <c r="RZ2" t="n">
+        <v>132.3312167329298</v>
+      </c>
+      <c r="SA2" t="n">
+        <v>183.2141858526826</v>
+      </c>
+      <c r="SB2" t="n">
+        <v>157.7634518229748</v>
+      </c>
+      <c r="SC2" t="n">
+        <v>158.8689839352741</v>
+      </c>
+      <c r="SD2" t="n">
+        <v>171.3254092826617</v>
+      </c>
+      <c r="SE2" t="n">
+        <v>137.3534088029464</v>
+      </c>
+      <c r="SF2" t="n">
+        <v>117.0903858489852</v>
+      </c>
+      <c r="SG2" t="n">
+        <v>174.3831323300184</v>
+      </c>
+      <c r="SH2" t="n">
+        <v>227.1063272211324</v>
+      </c>
+      <c r="SI2" t="n">
+        <v>156.003829960014</v>
+      </c>
+      <c r="SJ2" t="n">
+        <v>180.7871606039999</v>
+      </c>
+      <c r="SK2" t="n">
+        <v>179.1009825010784</v>
+      </c>
+      <c r="SL2" t="n">
+        <v>128.1381298105615</v>
+      </c>
+      <c r="SM2" t="n">
+        <v>126.5298030879073</v>
+      </c>
+      <c r="SN2" t="n">
+        <v>176.6501272251997</v>
+      </c>
+      <c r="SO2" t="n">
+        <v>199.0613460119938</v>
+      </c>
+      <c r="SP2" t="n">
+        <v>153.6929867341565</v>
+      </c>
+      <c r="SQ2" t="n">
+        <v>173.6406164572553</v>
+      </c>
+      <c r="SR2" t="n">
+        <v>145.2619852353957</v>
+      </c>
+      <c r="SS2" t="n">
+        <v>111.7293342215796</v>
+      </c>
+      <c r="ST2" t="n">
+        <v>116.4514013373294</v>
+      </c>
+      <c r="SU2" t="n">
+        <v>164.5299829286882</v>
+      </c>
+      <c r="SV2" t="n">
+        <v>218.8824549819843</v>
+      </c>
+      <c r="SW2" t="n">
+        <v>149.9933181079497</v>
+      </c>
+      <c r="SX2" t="n">
+        <v>153.1828776537793</v>
+      </c>
+      <c r="SY2" t="n">
+        <v>194.4816026029186</v>
+      </c>
+      <c r="SZ2" t="n">
+        <v>107.9107571528674</v>
+      </c>
+      <c r="TA2" t="n">
+        <v>113.9560976325417</v>
+      </c>
+      <c r="TB2" t="n">
+        <v>211.2092752822527</v>
+      </c>
+      <c r="TC2" t="n">
+        <v>215.427011098029</v>
+      </c>
+      <c r="TD2" t="n">
+        <v>194.1033325661541</v>
+      </c>
+      <c r="TE2" t="n">
+        <v>223.5864221806092</v>
+      </c>
+      <c r="TF2" t="n">
+        <v>167.4605545201897</v>
+      </c>
+      <c r="TG2" t="n">
+        <v>154.1778517304511</v>
+      </c>
+      <c r="TH2" t="n">
+        <v>149.2816105918838</v>
+      </c>
+      <c r="TI2" t="n">
+        <v>188.081607016395</v>
+      </c>
+      <c r="TJ2" t="n">
+        <v>215.8277245576674</v>
+      </c>
+      <c r="TK2" t="n">
+        <v>210.3685530030208</v>
+      </c>
+      <c r="TL2" t="n">
+        <v>217.9233472235968</v>
+      </c>
+      <c r="TM2" t="n">
+        <v>212.2080059859179</v>
+      </c>
+      <c r="TN2" t="n">
+        <v>156.4674024282949</v>
+      </c>
+      <c r="TO2" t="n">
+        <v>134.6638447619729</v>
+      </c>
+      <c r="TP2" t="n">
+        <v>207.2223994565349</v>
+      </c>
+      <c r="TQ2" t="n">
+        <v>305.5127304757772</v>
+      </c>
+      <c r="TR2" t="n">
+        <v>202.774576828124</v>
+      </c>
+      <c r="TS2" t="n">
+        <v>205.5735652440937</v>
+      </c>
+      <c r="TT2" t="n">
+        <v>220.8946367450398</v>
+      </c>
+      <c r="TU2" t="n">
+        <v>186.2618398029542</v>
+      </c>
+      <c r="TV2" t="n">
+        <v>167.0013662360017</v>
+      </c>
+      <c r="TW2" t="n">
+        <v>227.7479992320832</v>
+      </c>
+      <c r="TX2" t="n">
+        <v>246.4027972653202</v>
+      </c>
+      <c r="TY2" t="n">
+        <v>198.4235996037847</v>
+      </c>
+      <c r="TZ2" t="n">
+        <v>236.3460112355524</v>
+      </c>
+      <c r="UA2" t="n">
+        <v>210.178570924641</v>
+      </c>
+      <c r="UB2" t="n">
+        <v>136.0251574402347</v>
+      </c>
+      <c r="UC2" t="n">
+        <v>140.0013098215925</v>
+      </c>
+      <c r="UD2" t="n">
+        <v>209.771428946033</v>
+      </c>
+      <c r="UE2" t="n">
+        <v>245.7620790116987</v>
+      </c>
+      <c r="UF2" t="n">
+        <v>198.5531688960807</v>
+      </c>
+      <c r="UG2" t="n">
+        <v>230.6821077529042</v>
+      </c>
+      <c r="UH2" t="n">
+        <v>189.7654196156811</v>
+      </c>
+      <c r="UI2" t="n">
+        <v>145.6120055236103</v>
+      </c>
+      <c r="UJ2" t="n">
+        <v>141.8008254060299</v>
+      </c>
+      <c r="UK2" t="n">
+        <v>187.2307289040901</v>
+      </c>
+      <c r="UL2" t="n">
+        <v>249.7916949203589</v>
+      </c>
+      <c r="UM2" t="n">
+        <v>234.6595124889853</v>
+      </c>
+      <c r="UN2" t="n">
+        <v>241.0658343707214</v>
+      </c>
+      <c r="UO2" t="n">
+        <v>202.0056566560008</v>
+      </c>
+      <c r="UP2" t="n">
+        <v>154.0269017674889</v>
+      </c>
+      <c r="UQ2" t="n">
+        <v>139.6229535252993</v>
+      </c>
+      <c r="UR2" t="n">
+        <v>205.0232859248827</v>
+      </c>
+      <c r="US2" t="n">
+        <v>262.9336038387259</v>
+      </c>
+      <c r="UT2" t="n">
+        <v>219.9541485151079</v>
+      </c>
+      <c r="UU2" t="n">
+        <v>246.8277941291404</v>
+      </c>
+      <c r="UV2" t="n">
+        <v>212.879762798083</v>
+      </c>
+      <c r="UW2" t="n">
+        <v>153.5726778334205</v>
+      </c>
+      <c r="UX2" t="n">
+        <v>147.2270622745109</v>
+      </c>
+      <c r="UY2" t="n">
+        <v>209.167658186573</v>
+      </c>
+      <c r="UZ2" t="n">
+        <v>239.0245368026345</v>
+      </c>
+      <c r="VA2" t="n">
+        <v>222.2499185533666</v>
+      </c>
+      <c r="VB2" t="n">
+        <v>216.7756786605087</v>
+      </c>
+      <c r="VC2" t="n">
+        <v>158.4592807832608</v>
+      </c>
+      <c r="VD2" t="n">
+        <v>140.8611934319391</v>
+      </c>
+      <c r="VE2" t="n">
+        <v>150.0247325109226</v>
+      </c>
+      <c r="VF2" t="n">
+        <v>186.2621628781806</v>
+      </c>
+      <c r="VG2" t="n">
+        <v>227.7982324091822</v>
       </c>
     </row>
   </sheetData>
